--- a/OrbisGame/Container/Data/TiereCustom.xlsx
+++ b/OrbisGame/Container/Data/TiereCustom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96480B7A-BBE5-46A2-B358-9E7B8FEEFED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B466746A-B3F8-4811-B77B-4A50F4F4BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mövogel" sheetId="6" r:id="rId1"/>
@@ -4653,7 +4653,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5103,7 +5103,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="1">
-        <v>425</v>
+        <v>600</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>72</v>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="B19" s="1">
         <f>$B$17*0.2</f>
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>80</v>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="B20" s="1">
         <f>$B$17*0.7</f>
-        <v>297.5</v>
+        <v>420</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>84</v>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>89</v>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>93</v>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="B23" s="1">
         <f>$B$17*0.25</f>
-        <v>106.25</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>98</v>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="B24" s="1">
         <f>$B$17*0.25</f>
-        <v>106.25</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>102</v>

--- a/OrbisGame/Container/Data/TiereCustom.xlsx
+++ b/OrbisGame/Container/Data/TiereCustom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B466746A-B3F8-4811-B77B-4A50F4F4BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9B474A-F66D-4DB6-AD90-5BB9B3C5F399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2088" yWindow="1032" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mövogel" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Plötze" sheetId="2" r:id="rId5"/>
     <sheet name="Amadeus" sheetId="8" r:id="rId6"/>
     <sheet name="Parcival" sheetId="3" r:id="rId7"/>
-    <sheet name="Erwachtes Ross" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="131">
   <si>
     <t>AttributName</t>
   </si>
@@ -789,23 +788,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065435FE-93B8-4E72-9704-55CA42AB4BF5}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.64453125" customWidth="1"/>
-    <col min="2" max="2" width="7.1171875" customWidth="1"/>
-    <col min="3" max="3" width="13.52734375" customWidth="1"/>
-    <col min="4" max="4" width="5.3515625" customWidth="1"/>
-    <col min="5" max="5" width="15.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.64453125" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +833,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -861,7 +860,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -888,7 +887,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -915,7 +914,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -942,7 +941,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -969,7 +968,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -996,7 +995,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1023,7 +1022,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1050,7 +1049,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1076,7 +1075,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1103,7 +1102,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1130,7 +1129,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1158,7 +1157,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1186,7 +1185,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -1214,7 +1213,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1242,7 +1241,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -1269,7 +1268,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -1296,7 +1295,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -1324,7 +1323,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -1352,7 +1351,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -1380,7 +1379,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -1408,7 +1407,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -1436,7 +1435,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -1464,7 +1463,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -1487,7 +1486,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -1508,7 +1507,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -1531,7 +1530,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -1545,12 +1544,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>126</v>
@@ -1559,7 +1558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -1576,23 +1575,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95C6C3F-BEDD-4C25-9E38-221C38EA29D2}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.64453125" customWidth="1"/>
-    <col min="2" max="2" width="7.1171875" customWidth="1"/>
-    <col min="3" max="3" width="13.52734375" customWidth="1"/>
-    <col min="4" max="4" width="5.3515625" customWidth="1"/>
-    <col min="5" max="5" width="15.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.64453125" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +1647,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1675,7 +1674,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1702,7 +1701,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1729,7 +1728,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1756,7 +1755,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1783,7 +1782,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1810,7 +1809,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1837,7 +1836,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1863,7 +1862,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1890,7 +1889,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1917,7 +1916,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1945,7 +1944,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1973,7 +1972,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -2001,7 +2000,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -2029,7 +2028,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -2056,7 +2055,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -2083,7 +2082,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -2111,7 +2110,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2139,7 +2138,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -2167,7 +2166,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -2195,7 +2194,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -2223,7 +2222,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -2251,7 +2250,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -2274,7 +2273,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -2295,7 +2294,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2318,7 +2317,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -2332,12 +2331,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>126</v>
@@ -2346,7 +2345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -2363,19 +2362,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E66002-08AE-4564-BBE8-66259C1BEEA7}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.234375" customWidth="1"/>
-    <col min="3" max="3" width="15.1171875" customWidth="1"/>
-    <col min="5" max="5" width="13.234375" customWidth="1"/>
-    <col min="7" max="7" width="14.3515625" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2431,7 +2430,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2458,7 +2457,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2485,7 +2484,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2512,7 +2511,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2539,7 +2538,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2566,7 +2565,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2593,7 +2592,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2620,7 +2619,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2646,7 +2645,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -2673,7 +2672,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2700,7 +2699,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -2728,7 +2727,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,7 +2755,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -2784,7 +2783,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -2812,7 +2811,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -2839,7 +2838,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -2866,7 +2865,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -2894,7 +2893,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2922,7 +2921,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -2950,7 +2949,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -2978,7 +2977,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -3006,7 +3005,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -3034,7 +3033,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -3057,7 +3056,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -3078,7 +3077,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -3101,7 +3100,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -3115,12 +3114,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
         <v>126</v>
@@ -3129,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -3146,23 +3145,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.64453125" customWidth="1"/>
-    <col min="2" max="2" width="7.1171875" customWidth="1"/>
-    <col min="3" max="3" width="13.52734375" customWidth="1"/>
-    <col min="4" max="4" width="5.3515625" customWidth="1"/>
-    <col min="5" max="5" width="15.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.64453125" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3191,7 +3190,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3217,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3321,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3373,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -3424,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -3476,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -3557,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -3820,7 +3819,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -3840,7 +3839,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -3862,7 +3861,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -3876,18 +3875,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -3904,13 +3903,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F19F48-6BD2-43F6-827C-36816D1A4E1E}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3965,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4017,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4069,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -4251,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -4278,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -4358,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -4411,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -4438,7 +4437,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -4492,7 +4491,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -4519,7 +4518,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -4568,7 +4567,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -4588,7 +4587,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -4610,7 +4609,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -4624,18 +4623,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -4652,16 +4651,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275EC433-7E63-4AD6-A621-F1891D5C6B22}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="14.9375" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4690,7 +4689,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4717,7 +4716,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4744,7 +4743,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4771,7 +4770,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4798,7 +4797,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4825,7 +4824,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4852,7 +4851,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -4879,7 +4878,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -4906,7 +4905,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -4932,7 +4931,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -4959,7 +4958,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -4986,7 +4985,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -5014,7 +5013,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -5042,7 +5041,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -5070,7 +5069,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -5098,7 +5097,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -5125,7 +5124,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -5152,7 +5151,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -5180,7 +5179,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -5208,7 +5207,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -5236,7 +5235,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -5264,7 +5263,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -5292,7 +5291,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -5320,7 +5319,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -5343,7 +5342,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -5364,7 +5363,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -5387,7 +5386,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -5401,12 +5400,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
         <v>126</v>
@@ -5415,7 +5414,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>129</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>9581.25</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>130</v>
       </c>
@@ -5455,16 +5454,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663C91DE-E703-4A18-9D7D-9456B380F6EA}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.41015625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5493,7 +5492,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5520,7 +5519,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -5547,7 +5546,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -5574,7 +5573,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -5601,7 +5600,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -5628,7 +5627,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -5655,7 +5654,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -5682,7 +5681,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -5709,7 +5708,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -5735,7 +5734,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -5762,7 +5761,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -5789,7 +5788,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -5817,7 +5816,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -5845,7 +5844,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -5873,7 +5872,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -5901,7 +5900,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -5928,7 +5927,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -5955,7 +5954,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -5983,7 +5982,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -6011,7 +6010,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -6039,7 +6038,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -6067,7 +6066,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -6095,7 +6094,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -6123,7 +6122,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -6146,7 +6145,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -6167,7 +6166,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -6190,7 +6189,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -6204,771 +6203,23 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
       <c r="B30">
         <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9AE912-9F25-4D76-930E-49209478D33C}">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1">
-        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="1">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="1">
-        <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1">
-        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="1">
-        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="1">
-        <f>B8+B9</f>
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="1">
-        <v>350</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="1">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="1">
-        <f>$B$17*0.2</f>
-        <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="1">
-        <f>$B$17*0.7</f>
-        <v>244.99999999999997</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="1">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
-        <v>70</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="1">
-        <v>35</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="1">
-        <f>$B$17*0.25</f>
-        <v>87.5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="1">
-        <f>$B$17*0.25</f>
-        <v>87.5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="1">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28">
-        <v>200</v>
-      </c>
-      <c r="E28" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/OrbisGame/Container/Data/TiereCustom.xlsx
+++ b/OrbisGame/Container/Data/TiereCustom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9B474A-F66D-4DB6-AD90-5BB9B3C5F399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77626C9D-6405-4765-9ADA-D7FB93C604B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2088" yWindow="1032" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mövogel" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Plötze" sheetId="2" r:id="rId5"/>
     <sheet name="Amadeus" sheetId="8" r:id="rId6"/>
     <sheet name="Parcival" sheetId="3" r:id="rId7"/>
+    <sheet name="Ratte Bio Waffe" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="135">
   <si>
     <t>AttributName</t>
   </si>
@@ -433,6 +434,18 @@
   </si>
   <si>
     <t>RareBonus</t>
+  </si>
+  <si>
+    <t>Ratte</t>
+  </si>
+  <si>
+    <t>Lootprofil</t>
+  </si>
+  <si>
+    <t>Giftbiss</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
@@ -792,19 +805,19 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.64453125" customWidth="1"/>
+    <col min="2" max="2" width="7.1171875" customWidth="1"/>
+    <col min="3" max="3" width="13.52734375" customWidth="1"/>
+    <col min="4" max="4" width="5.3515625" customWidth="1"/>
+    <col min="5" max="5" width="15.1171875" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +846,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,7 +873,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -887,7 +900,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -914,7 +927,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -941,7 +954,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -968,7 +981,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -995,7 +1008,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1022,7 +1035,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1049,7 +1062,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1075,7 +1088,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1102,7 +1115,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1129,7 +1142,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1157,7 +1170,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1185,7 +1198,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -1213,7 +1226,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1241,7 +1254,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -1268,7 +1281,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -1295,7 +1308,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -1323,7 +1336,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -1351,7 +1364,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -1379,7 +1392,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -1407,7 +1420,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -1435,7 +1448,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -1463,7 +1476,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -1486,7 +1499,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -1507,7 +1520,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -1530,7 +1543,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -1544,7 +1557,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -1558,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -1579,19 +1592,19 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.64453125" customWidth="1"/>
+    <col min="2" max="2" width="7.1171875" customWidth="1"/>
+    <col min="3" max="3" width="13.52734375" customWidth="1"/>
+    <col min="4" max="4" width="5.3515625" customWidth="1"/>
+    <col min="5" max="5" width="15.1171875" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1633,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1647,7 +1660,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1674,7 +1687,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1701,7 +1714,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1741,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1755,7 +1768,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1782,7 +1795,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1809,7 +1822,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1836,7 +1849,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1862,7 +1875,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1889,7 +1902,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1916,7 +1929,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1944,7 +1957,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1972,7 +1985,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -2000,7 +2013,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -2028,7 +2041,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -2055,7 +2068,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -2082,7 +2095,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -2110,7 +2123,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2138,7 +2151,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -2166,7 +2179,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -2194,7 +2207,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -2222,7 +2235,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -2250,7 +2263,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -2273,7 +2286,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -2294,7 +2307,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2317,7 +2330,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -2331,7 +2344,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -2345,7 +2358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -2366,15 +2379,15 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.234375" customWidth="1"/>
+    <col min="3" max="3" width="15.1171875" customWidth="1"/>
+    <col min="5" max="5" width="13.234375" customWidth="1"/>
+    <col min="7" max="7" width="14.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2403,7 +2416,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2430,7 +2443,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2457,7 +2470,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2484,7 +2497,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2511,7 +2524,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2538,7 +2551,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2565,7 +2578,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2592,7 +2605,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2619,7 +2632,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2645,7 +2658,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -2672,7 +2685,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2699,7 +2712,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -2727,7 +2740,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,7 +2768,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -2783,7 +2796,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -2811,7 +2824,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -2838,7 +2851,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -2865,7 +2878,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -2893,7 +2906,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2921,7 +2934,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -2949,7 +2962,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -2977,7 +2990,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -3005,7 +3018,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -3033,7 +3046,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -3056,7 +3069,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -3077,7 +3090,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -3100,7 +3113,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -3114,7 +3127,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -3128,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -3149,19 +3162,19 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.64453125" customWidth="1"/>
+    <col min="2" max="2" width="7.1171875" customWidth="1"/>
+    <col min="3" max="3" width="13.52734375" customWidth="1"/>
+    <col min="4" max="4" width="5.3515625" customWidth="1"/>
+    <col min="5" max="5" width="15.1171875" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +3203,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3216,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3242,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3268,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3294,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3320,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3346,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3372,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -3398,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -3423,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -3449,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -3475,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -3502,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -3529,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -3556,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -3583,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -3609,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -3635,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -3662,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -3689,7 +3702,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -3716,7 +3729,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -3743,7 +3756,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -3770,7 +3783,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -3797,7 +3810,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -3819,7 +3832,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -3839,7 +3852,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -3861,7 +3874,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -3875,7 +3888,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -3886,7 +3899,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -3907,9 +3920,9 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3938,7 +3951,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3964,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3990,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4016,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4042,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4068,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4094,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -4120,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -4146,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -4171,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -4197,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -4223,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -4250,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -4277,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -4304,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -4331,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -4357,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -4383,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -4410,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -4437,7 +4450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -4464,7 +4477,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -4491,7 +4504,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -4518,7 +4531,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -4545,7 +4558,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -4567,7 +4580,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -4587,7 +4600,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -4609,7 +4622,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -4623,7 +4636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -4634,7 +4647,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -4655,12 +4668,12 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4689,7 +4702,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4716,7 +4729,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4743,7 +4756,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4770,7 +4783,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4797,7 +4810,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4824,7 +4837,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4851,7 +4864,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -4878,7 +4891,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -4905,7 +4918,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -4931,7 +4944,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -4958,7 +4971,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -4985,7 +4998,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -5013,7 +5026,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -5041,7 +5054,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -5069,7 +5082,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -5097,7 +5110,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -5124,7 +5137,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -5151,7 +5164,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -5179,7 +5192,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -5207,7 +5220,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -5235,7 +5248,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -5263,7 +5276,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -5291,7 +5304,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -5319,7 +5332,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -5342,7 +5355,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -5363,7 +5376,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -5386,7 +5399,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -5400,7 +5413,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -5414,7 +5427,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -5428,7 +5441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
         <v>129</v>
       </c>
@@ -5437,7 +5450,7 @@
         <v>9581.25</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
         <v>130</v>
       </c>
@@ -5454,16 +5467,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663C91DE-E703-4A18-9D7D-9456B380F6EA}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5492,7 +5505,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5519,7 +5532,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -5546,7 +5559,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -5573,7 +5586,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -5600,7 +5613,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -5627,7 +5640,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -5654,7 +5667,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -5681,7 +5694,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -5708,7 +5721,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -5734,7 +5747,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -5761,7 +5774,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -5788,7 +5801,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -5816,7 +5829,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -5844,7 +5857,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -5872,7 +5885,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -5900,7 +5913,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -5927,7 +5940,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -5954,7 +5967,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -5982,7 +5995,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -6010,7 +6023,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -6038,7 +6051,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -6066,7 +6079,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -6094,7 +6107,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -6122,7 +6135,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -6145,7 +6158,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -6166,7 +6179,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -6189,7 +6202,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -6203,7 +6216,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -6214,12 +6227,788 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>115</v>
       </c>
       <c r="B30">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DD0CFE-19E9-4ED0-A8F8-98AEBC321F6C}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1">
+        <f>$B$17*0.2</f>
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1">
+        <f>$B$17*0.2</f>
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>12.5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>12.5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31">
+        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
+        <v>1147.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/OrbisGame/Container/Data/TiereCustom.xlsx
+++ b/OrbisGame/Container/Data/TiereCustom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77626C9D-6405-4765-9ADA-D7FB93C604B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A8945-FC1B-4807-AC84-A9DA21C2D1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mövogel" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Amadeus" sheetId="8" r:id="rId6"/>
     <sheet name="Parcival" sheetId="3" r:id="rId7"/>
     <sheet name="Ratte Bio Waffe" sheetId="9" r:id="rId8"/>
+    <sheet name="Mokka" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="137">
   <si>
     <t>AttributName</t>
   </si>
@@ -446,6 +447,12 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>Hund</t>
   </si>
 </sst>
 </file>
@@ -805,19 +812,19 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.64453125" customWidth="1"/>
-    <col min="2" max="2" width="7.1171875" customWidth="1"/>
-    <col min="3" max="3" width="13.52734375" customWidth="1"/>
-    <col min="4" max="4" width="5.3515625" customWidth="1"/>
-    <col min="5" max="5" width="15.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.64453125" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,7 +853,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,7 +880,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -900,7 +907,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -927,7 +934,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -954,7 +961,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -981,7 +988,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1008,7 +1015,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1035,7 +1042,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1062,7 +1069,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1088,7 +1095,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1115,7 +1122,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1142,7 +1149,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1170,7 +1177,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1198,7 +1205,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -1226,7 +1233,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1254,7 +1261,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -1281,7 +1288,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -1308,7 +1315,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -1336,7 +1343,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -1364,7 +1371,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -1392,7 +1399,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -1420,7 +1427,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -1448,7 +1455,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -1476,7 +1483,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -1499,7 +1506,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -1520,7 +1527,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -1543,7 +1550,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -1557,7 +1564,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -1571,7 +1578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -1592,19 +1599,19 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.64453125" customWidth="1"/>
-    <col min="2" max="2" width="7.1171875" customWidth="1"/>
-    <col min="3" max="3" width="13.52734375" customWidth="1"/>
-    <col min="4" max="4" width="5.3515625" customWidth="1"/>
-    <col min="5" max="5" width="15.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.64453125" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1640,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1660,7 +1667,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1687,7 +1694,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1714,7 +1721,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1741,7 +1748,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1768,7 +1775,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1795,7 +1802,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1822,7 +1829,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1849,7 +1856,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1875,7 +1882,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1902,7 +1909,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1929,7 +1936,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1957,7 +1964,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1985,7 +1992,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -2013,7 +2020,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -2041,7 +2048,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -2068,7 +2075,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -2095,7 +2102,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -2123,7 +2130,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2151,7 +2158,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -2179,7 +2186,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -2207,7 +2214,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -2235,7 +2242,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -2263,7 +2270,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -2286,7 +2293,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -2307,7 +2314,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2330,7 +2337,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -2344,7 +2351,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -2358,7 +2365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -2379,15 +2386,15 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.234375" customWidth="1"/>
-    <col min="3" max="3" width="15.1171875" customWidth="1"/>
-    <col min="5" max="5" width="13.234375" customWidth="1"/>
-    <col min="7" max="7" width="14.3515625" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2416,7 +2423,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2443,7 +2450,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2470,7 +2477,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2497,7 +2504,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2524,7 +2531,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2551,7 +2558,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2578,7 +2585,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2605,7 +2612,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2632,7 +2639,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2658,7 +2665,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -2685,7 +2692,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2712,7 +2719,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -2740,7 +2747,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -2768,7 +2775,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -2796,7 +2803,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -2824,7 +2831,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -2851,7 +2858,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -2878,7 +2885,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -2906,7 +2913,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2934,7 +2941,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -2962,7 +2969,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -2990,7 +2997,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -3018,7 +3025,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -3046,7 +3053,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -3069,7 +3076,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -3090,7 +3097,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -3113,7 +3120,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -3127,7 +3134,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -3141,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -3162,19 +3169,19 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.64453125" customWidth="1"/>
-    <col min="2" max="2" width="7.1171875" customWidth="1"/>
-    <col min="3" max="3" width="13.52734375" customWidth="1"/>
-    <col min="4" max="4" width="5.3515625" customWidth="1"/>
-    <col min="5" max="5" width="15.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.64453125" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3203,7 +3210,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3229,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3255,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3281,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3307,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3333,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3359,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3385,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -3411,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -3436,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -3462,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -3488,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -3515,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -3542,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -3569,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -3596,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -3622,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -3648,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -3675,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -3702,7 +3709,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -3729,7 +3736,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -3756,7 +3763,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -3783,7 +3790,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -3810,7 +3817,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -3832,7 +3839,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -3852,7 +3859,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -3874,7 +3881,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -3888,7 +3895,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -3899,7 +3906,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -3920,9 +3927,9 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3951,7 +3958,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3977,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4003,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4029,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4081,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4107,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -4133,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -4159,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -4184,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -4210,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -4263,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -4290,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -4317,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -4344,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -4370,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -4396,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -4423,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -4450,7 +4457,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -4477,7 +4484,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -4504,7 +4511,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -4531,7 +4538,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -4558,7 +4565,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -4580,7 +4587,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -4600,7 +4607,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -4622,7 +4629,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -4636,7 +4643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -4647,7 +4654,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -4668,12 +4675,12 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="14.87890625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4702,7 +4709,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4729,7 +4736,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4756,7 +4763,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4783,7 +4790,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,7 +4817,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4837,7 +4844,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4864,7 +4871,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -4891,7 +4898,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -4918,7 +4925,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -4944,7 +4951,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -4971,7 +4978,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -4998,7 +5005,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -5026,7 +5033,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -5054,7 +5061,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -5082,7 +5089,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -5110,7 +5117,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -5137,7 +5144,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -5164,7 +5171,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -5192,7 +5199,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -5220,7 +5227,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -5248,7 +5255,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -5276,7 +5283,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -5304,7 +5311,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -5332,7 +5339,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -5355,7 +5362,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -5376,7 +5383,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -5399,7 +5406,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -5413,7 +5420,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -5427,7 +5434,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -5441,7 +5448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>129</v>
       </c>
@@ -5450,7 +5457,7 @@
         <v>9581.25</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>130</v>
       </c>
@@ -5471,12 +5478,12 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.41015625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5505,7 +5512,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5532,7 +5539,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -5559,7 +5566,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -5586,7 +5593,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -5613,7 +5620,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -5640,7 +5647,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -5667,7 +5674,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -5694,7 +5701,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -5721,7 +5728,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -5747,7 +5754,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -5774,7 +5781,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -5801,7 +5808,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -5829,7 +5836,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -5857,7 +5864,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -5885,7 +5892,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -5913,7 +5920,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -5940,7 +5947,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -5967,7 +5974,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -5995,7 +6002,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -6023,7 +6030,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -6051,7 +6058,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -6079,7 +6086,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -6107,7 +6114,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -6135,7 +6142,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -6158,7 +6165,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -6179,7 +6186,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -6202,7 +6209,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -6216,7 +6223,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -6227,7 +6234,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -6244,13 +6251,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DD0CFE-19E9-4ED0-A8F8-98AEBC321F6C}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6279,7 +6286,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -6305,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -6331,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -6357,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -6383,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -6409,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -6435,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -6461,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -6485,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -6510,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -6536,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -6562,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -6589,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -6616,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -6643,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -6670,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -6696,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -6722,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -6749,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -6776,7 +6783,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -6803,7 +6810,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -6830,7 +6837,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -6857,7 +6864,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -6884,7 +6891,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -6910,7 +6917,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -6930,7 +6937,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -6952,7 +6959,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -6966,7 +6973,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -6980,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -6994,7 +7001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>129</v>
       </c>
@@ -7003,7 +7010,7 @@
         <v>1147.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>130</v>
       </c>
@@ -7014,4 +7021,866 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A56AAE-4DFF-410D-ACFC-53436D0592FA}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>140</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1">
+        <f>$B$17*0.2</f>
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1">
+        <f>$B$17*0.2</f>
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="1">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31">
+        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OrbisGame/Container/Data/TiereCustom.xlsx
+++ b/OrbisGame/Container/Data/TiereCustom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A8945-FC1B-4807-AC84-A9DA21C2D1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77E9B8A-BEF8-4D87-B321-13144FE57C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="612" windowWidth="13620" windowHeight="8640" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mövogel" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Parcival" sheetId="3" r:id="rId7"/>
     <sheet name="Ratte Bio Waffe" sheetId="9" r:id="rId8"/>
     <sheet name="Mokka" sheetId="10" r:id="rId9"/>
+    <sheet name="Wildschwein" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="139">
   <si>
     <t>AttributName</t>
   </si>
@@ -453,6 +454,12 @@
   </si>
   <si>
     <t>Hund</t>
+  </si>
+  <si>
+    <t>Wildschwein</t>
+  </si>
+  <si>
+    <t>Keins</t>
   </si>
 </sst>
 </file>
@@ -1591,6 +1598,782 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D79F92-601F-4449-B6C7-C899050F3B2B}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1">
+        <v>300</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>210</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1">
+        <f>$B$17*0.2</f>
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1">
+        <f>$B$17*0.2</f>
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="1">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31">
+        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95C6C3F-BEDD-4C25-9E38-221C38EA29D2}">
   <dimension ref="A1:I30"/>
@@ -7027,7 +7810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A56AAE-4DFF-410D-ACFC-53436D0592FA}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/OrbisGame/Container/Data/TiereCustom.xlsx
+++ b/OrbisGame/Container/Data/TiereCustom.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emilm\Dropbox\Rpg\Container\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A1777F-1036-44FB-8DB8-E785A6C0D41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="7"/>
+    <workbookView xWindow="1515" yWindow="240" windowWidth="25860" windowHeight="14625" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Moebius" sheetId="4" r:id="rId1"/>
@@ -15,12 +21,10 @@
     <sheet name="Ratte Bio Waffe" sheetId="9" r:id="rId6"/>
     <sheet name="Mokka" sheetId="10" r:id="rId7"/>
     <sheet name="Wildschwein" sheetId="11" r:id="rId8"/>
+    <sheet name="Boris" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -31,14 +35,18 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="139">
   <si>
     <t>AttributName</t>
   </si>
@@ -449,12 +457,18 @@
   </si>
   <si>
     <t>Fingerfertigkeit</t>
+  </si>
+  <si>
+    <t>Pranke</t>
+  </si>
+  <si>
+    <t>Bär</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,16 +518,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -783,33 +796,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +851,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -865,7 +878,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -892,7 +905,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -919,7 +932,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -946,7 +959,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -973,7 +986,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1000,7 +1013,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1027,7 +1040,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1054,7 +1067,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1080,7 +1093,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1107,14 +1120,14 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -1134,7 +1147,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -1142,7 +1155,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -1162,7 +1175,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -1170,7 +1183,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -1190,7 +1203,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1198,7 +1211,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -1218,7 +1231,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -1226,7 +1239,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -1246,14 +1259,14 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>125</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -1273,14 +1286,14 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -1300,7 +1313,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -1308,7 +1321,7 @@
         <f>$B$17*0.2</f>
         <v>25</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -1328,7 +1341,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -1336,7 +1349,7 @@
         <f>$B$17*0.7</f>
         <v>87.5</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -1356,7 +1369,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -1364,7 +1377,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>25</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -1384,7 +1397,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -1392,7 +1405,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -1412,7 +1425,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -1420,7 +1433,7 @@
         <f>$B$17*0.25</f>
         <v>31.25</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -1440,7 +1453,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -1448,7 +1461,7 @@
         <f>$B$17*0.25</f>
         <v>31.25</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -1468,14 +1481,14 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -1491,14 +1504,14 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -1512,14 +1525,14 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -1530,7 +1543,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -1544,7 +1557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -1558,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -1577,26 +1590,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,11 +1634,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1651,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1677,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1729,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1755,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1781,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1807,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1833,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1858,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1884,14 +1897,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -1910,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -1918,7 +1931,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -1937,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -1945,7 +1958,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -1964,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1972,7 +1985,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -1991,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -1999,7 +2012,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -2018,14 +2031,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>350</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -2044,14 +2057,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>35</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -2070,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -2078,7 +2091,7 @@
         <f>$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -2097,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -2105,7 +2118,7 @@
         <f>$B$17*0.7</f>
         <v>244.99999999999997</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -2124,7 +2137,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -2132,7 +2145,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -2151,7 +2164,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -2159,7 +2172,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -2178,7 +2191,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -2186,7 +2199,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -2205,7 +2218,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -2213,7 +2226,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -2232,14 +2245,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -2254,14 +2267,14 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>115</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -2274,14 +2287,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>1.35</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -2291,14 +2304,14 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>200</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -2306,7 +2319,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -2320,7 +2333,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -2334,7 +2347,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>126</v>
       </c>
@@ -2343,7 +2356,7 @@
         <v>9581.25</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>127</v>
       </c>
@@ -2362,16 +2375,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C28"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2396,11 +2409,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2426,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2452,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2478,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2530,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2556,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2582,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2608,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2633,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -2659,14 +2672,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -2685,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,7 +2706,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -2712,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2720,7 +2733,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -2739,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2747,7 +2760,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -2766,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -2774,7 +2787,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -2793,14 +2806,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>350</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -2819,14 +2832,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>35</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -2845,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -2853,7 +2866,7 @@
         <f>$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -2872,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -2880,7 +2893,7 @@
         <f>$B$17*0.7</f>
         <v>244.99999999999997</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -2899,7 +2912,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -2907,7 +2920,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -2926,7 +2939,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -2934,7 +2947,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -2953,7 +2966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -2961,7 +2974,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -2980,7 +2993,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -2988,7 +3001,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -3007,14 +3020,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -3029,14 +3042,14 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>115</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -3049,14 +3062,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>1.35</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -3066,14 +3079,14 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>200</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -3081,7 +3094,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -3095,7 +3108,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -3109,7 +3122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>126</v>
       </c>
@@ -3118,7 +3131,7 @@
         <v>9581.25</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>127</v>
       </c>
@@ -3137,19 +3150,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3178,7 +3191,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3205,7 +3218,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3232,7 +3245,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3259,7 +3272,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3286,7 +3299,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3313,7 +3326,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3340,7 +3353,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3367,7 +3380,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -3394,7 +3407,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -3420,7 +3433,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -3447,14 +3460,14 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -3474,7 +3487,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -3482,7 +3495,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -3502,7 +3515,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -3510,7 +3523,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -3530,7 +3543,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -3538,7 +3551,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -3558,7 +3571,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -3566,7 +3579,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -3586,14 +3599,14 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>600</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -3613,14 +3626,14 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -3640,7 +3653,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -3648,7 +3661,7 @@
         <f>$B$17*0.2</f>
         <v>120</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -3668,7 +3681,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -3676,7 +3689,7 @@
         <f>$B$17*0.7</f>
         <v>420</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -3696,7 +3709,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -3704,7 +3717,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>120</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -3724,7 +3737,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -3732,7 +3745,7 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -3752,7 +3765,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -3760,7 +3773,7 @@
         <f>$B$17*0.25</f>
         <v>150</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -3780,7 +3793,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -3788,7 +3801,7 @@
         <f>$B$17*0.25</f>
         <v>150</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -3808,14 +3821,14 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -3831,14 +3844,14 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -3852,14 +3865,14 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>2.5</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -3870,14 +3883,14 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>210</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -3885,7 +3898,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -3899,7 +3912,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -3913,7 +3926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>126</v>
       </c>
@@ -3922,7 +3935,7 @@
         <v>9581.25</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>127</v>
       </c>
@@ -3941,19 +3954,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3982,7 +3995,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4009,7 +4022,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4036,7 +4049,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4063,7 +4076,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4090,7 +4103,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4117,7 +4130,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4144,7 +4157,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -4171,7 +4184,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -4198,7 +4211,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -4224,7 +4237,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -4251,14 +4264,14 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -4278,7 +4291,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -4286,7 +4299,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -4306,7 +4319,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -4314,7 +4327,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -4334,7 +4347,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -4342,7 +4355,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -4362,7 +4375,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -4370,7 +4383,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -4390,14 +4403,14 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>400</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -4417,14 +4430,14 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>28</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -4444,7 +4457,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -4452,7 +4465,7 @@
         <f>$B$17*0.2</f>
         <v>80</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -4472,7 +4485,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -4480,7 +4493,7 @@
         <f>$B$17*0.7</f>
         <v>280</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -4500,7 +4513,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -4508,7 +4521,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>80</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -4528,7 +4541,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -4536,7 +4549,7 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -4556,7 +4569,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -4564,7 +4577,7 @@
         <f>$B$17*0.25</f>
         <v>100</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -4584,7 +4597,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -4592,7 +4605,7 @@
         <f>$B$17*0.25</f>
         <v>100</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -4612,14 +4625,14 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -4635,14 +4648,14 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -4656,14 +4669,14 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>1.5</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -4674,14 +4687,14 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>180</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -4689,7 +4702,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -4700,7 +4713,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -4719,16 +4732,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4757,7 +4770,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4783,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4809,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4835,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4861,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4887,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4913,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -4939,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -4963,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -4988,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -5014,14 +5027,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -5040,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -5048,7 +5061,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -5067,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -5075,7 +5088,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>3</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -5094,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -5102,7 +5115,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -5121,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -5129,7 +5142,7 @@
         <f>B8+B9</f>
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -5148,14 +5161,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>50</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -5174,14 +5187,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>50</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -5200,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -5208,7 +5221,7 @@
         <f>$B$17*0.2</f>
         <v>10</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -5227,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -5235,7 +5248,7 @@
         <f>$B$17*0.7</f>
         <v>35</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -5254,7 +5267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -5262,7 +5275,7 @@
         <f>$B$17*0.2</f>
         <v>10</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -5281,7 +5294,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -5289,7 +5302,7 @@
         <f>$B$17*0.2</f>
         <v>10</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -5308,7 +5321,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -5316,7 +5329,7 @@
         <f>$B$17*0.25</f>
         <v>12.5</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -5335,7 +5348,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -5343,7 +5356,7 @@
         <f>$B$17*0.25</f>
         <v>12.5</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -5362,14 +5375,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -5388,14 +5401,14 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -5408,14 +5421,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -5425,14 +5438,14 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>50</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -5440,7 +5453,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -5454,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -5468,7 +5481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>126</v>
       </c>
@@ -5477,7 +5490,7 @@
         <v>1147.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>127</v>
       </c>
@@ -5496,22 +5509,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5542,7 +5555,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5571,7 +5584,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -5600,7 +5613,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -5629,7 +5642,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -5658,7 +5671,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -5687,7 +5700,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -5716,7 +5729,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -5745,7 +5758,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -5772,7 +5785,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -5800,7 +5813,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -5829,14 +5842,14 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -5858,7 +5871,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -5866,7 +5879,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -5888,7 +5901,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -5896,7 +5909,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -5918,7 +5931,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -5926,7 +5939,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -5948,7 +5961,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -5956,7 +5969,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -5978,14 +5991,14 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>200</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -6007,14 +6020,14 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -6036,7 +6049,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -6044,7 +6057,7 @@
         <f>$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -6066,7 +6079,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -6074,7 +6087,7 @@
         <f>$B$17*0.7</f>
         <v>140</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -6096,7 +6109,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -6104,7 +6117,7 @@
         <f>$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -6126,7 +6139,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -6134,7 +6147,7 @@
         <f>$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -6156,7 +6169,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -6164,7 +6177,7 @@
         <f>$B$17*0.25</f>
         <v>50</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -6186,7 +6199,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -6194,7 +6207,7 @@
         <f>$B$17*0.25</f>
         <v>50</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -6216,14 +6229,14 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -6245,14 +6258,14 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -6268,14 +6281,14 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>1.5</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -6288,14 +6301,14 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>45</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -6303,7 +6316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -6317,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -6331,7 +6344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>126</v>
       </c>
@@ -6340,7 +6353,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>127</v>
       </c>
@@ -6359,16 +6372,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6397,7 +6410,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -6423,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -6449,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -6475,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -6501,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -6527,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -6553,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -6579,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -6603,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -6628,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -6654,14 +6667,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -6680,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -6688,7 +6701,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -6707,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -6715,7 +6728,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -6734,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -6742,7 +6755,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -6761,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -6769,7 +6782,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -6788,14 +6801,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>300</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -6814,14 +6827,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -6840,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -6848,7 +6861,7 @@
         <f>$B$17*0.2</f>
         <v>60</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -6867,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -6875,7 +6888,7 @@
         <f>$B$17*0.7</f>
         <v>210</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -6894,7 +6907,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -6902,7 +6915,7 @@
         <f>$B$17*0.2</f>
         <v>60</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -6921,7 +6934,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,7 +6942,7 @@
         <f>$B$17*0.2</f>
         <v>60</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -6948,7 +6961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -6956,7 +6969,7 @@
         <f>$B$17*0.25</f>
         <v>75</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -6975,7 +6988,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -6983,7 +6996,7 @@
         <f>$B$17*0.25</f>
         <v>75</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -7002,14 +7015,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -7028,14 +7041,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -7048,14 +7061,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -7065,14 +7078,14 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>25</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -7080,7 +7093,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -7094,7 +7107,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -7108,7 +7121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>126</v>
       </c>
@@ -7117,7 +7130,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>127</v>
       </c>
@@ -7133,4 +7146,772 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D49EAD4-790C-4025-A3A5-862BD8148DD2}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1">
+        <v>600</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>120</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>420</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="1">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
+        <v>120</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>150</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>150</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28">
+        <v>150</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31">
+        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
+        <v>9318.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>